--- a/autoConditions/train1Block6Test.xlsx
+++ b/autoConditions/train1Block6Test.xlsx
@@ -469,97 +469,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/01_pitito.wav</t>
+          <t>trainaudio/12_pokika.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainaudio/27_pakapa.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/27_kiwi.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainaudio/20_tatito.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainaudio/23_patoko.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+          <t>pngimages/23_lemon.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>trainaudio/15_kopota.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pngimages/15_barrel.png</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>trainaudio/08_tipako.wav</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>pngimages/08_bell.png</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trainaudio/17_kotako.wav</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pngimages/17_cracker.png</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block6Test.xlsx
+++ b/autoConditions/train1Block6Test.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/12_pokika.wav</t>
+          <t>trainingimages/22_kakoki</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/27_pakapa.wav</t>
+          <t>trainingimages/01_kitipi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,57 +497,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainingimages/14_pokoto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainingimages/08_tipako</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainingimages/19_papipi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/08_tipako.wav</t>
+          <t>trainingimages/17_kotako</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block6Test.xlsx
+++ b/autoConditions/train1Block6Test.xlsx
@@ -469,50 +469,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/22_kakoki</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/01_kitipi</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/14_pokoto</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/08_tipako</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,29 +525,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/19_papipi</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainingimages/17_kotako</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
